--- a/fuentes/contenidos/grado06/guion03/SolicitudGrafica_CN_06_03_CO_REC60.xlsx
+++ b/fuentes/contenidos/grado06/guion03/SolicitudGrafica_CN_06_03_CO_REC60.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
@@ -11,7 +11,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -511,9 +511,6 @@
     <t>Camilo Ernesto Rodríguez Valencia</t>
   </si>
   <si>
-    <t>CN_06_03_REC70</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -554,16 +551,19 @@
   </si>
   <si>
     <t>Utilidad de las arqueas</t>
+  </si>
+  <si>
+    <t>CN_06_03_REC60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1463,6 +1463,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,22 +1563,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1680,7 +1680,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1693,6 +1693,298 @@
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2028825</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2019300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2066925</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2085975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2016,16 +2308,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
@@ -2043,7 +2335,7 @@
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2055,49 +2347,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="F2" s="73" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="88">
         <v>6</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="F3" s="75">
+      <c r="D3" s="89"/>
+      <c r="F3" s="81">
         <v>42080</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="48" t="s">
         <v>55</v>
@@ -2110,29 +2402,29 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="46" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="70"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2145,13 +2437,13 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>39</v>
@@ -2163,18 +2455,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2183,11 +2475,11 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="75" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -2218,26 +2510,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="94.5">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="107" t="s">
-        <v>149</v>
+      <c r="B10" s="76" t="s">
+        <v>148</v>
       </c>
       <c r="C10" s="27" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F1</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_06_03_REC70_IMG01.jpg</v>
+        <v>CN_06_03_REC60_IMG01.jpg</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2251,31 +2543,31 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="104" t="s">
+      <c r="J10" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A11" s="105" t="s">
+      <c r="B11" s="76" t="s">
         <v>153</v>
-      </c>
-      <c r="B11" s="107" t="s">
-        <v>154</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F1</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_06_03_REC70_IMG02.jpg</v>
+        <v>CN_06_03_REC60_IMG02.jpg</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2289,31 +2581,31 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="81">
-      <c r="A12" s="105" t="s">
+      <c r="B12" s="76" t="s">
         <v>156</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>157</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F1</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_03_REC70_IMG03.jpg</v>
+        <v>CN_06_03_REC60_IMG03.jpg</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2327,31 +2619,31 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1">
-      <c r="A13" s="105" t="s">
+      <c r="B13" s="78" t="s">
         <v>159</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>160</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_06_03_REC70_IMG04.jpg</v>
+        <v>CN_06_03_REC60_IMG04.jpg</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2365,17 +2657,17 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="108" t="s">
-        <v>161</v>
+      <c r="J13" s="77" t="s">
+        <v>160</v>
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1">
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
-        <f t="shared" ref="A12:A18" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B14" s="105"/>
+        <f t="shared" ref="A14:A18" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="74"/>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2401,7 +2693,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1">
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2432,7 +2724,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2463,7 +2755,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1">
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2494,7 +2786,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1">
+    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2525,7 +2817,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -2556,7 +2848,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1">
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f t="shared" ref="A20:A83" si="4">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
         <v/>
@@ -2587,7 +2879,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1">
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2618,7 +2910,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1">
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2649,7 +2941,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1">
+    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2680,7 +2972,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1">
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2711,7 +3003,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1">
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2742,7 +3034,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1">
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2773,7 +3065,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1">
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2804,7 +3096,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1">
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2835,7 +3127,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1">
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2866,7 +3158,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2897,7 +3189,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2928,7 +3220,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2959,7 +3251,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2990,7 +3282,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3021,7 +3313,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3052,7 +3344,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3083,7 +3375,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3114,7 +3406,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3145,7 +3437,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3176,7 +3468,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3207,7 +3499,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3238,7 +3530,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3269,7 +3561,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3300,7 +3592,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3331,7 +3623,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3362,7 +3654,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3393,7 +3685,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3424,7 +3716,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3455,7 +3747,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3486,7 +3778,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3517,7 +3809,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3548,7 +3840,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3579,7 +3871,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3610,7 +3902,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3641,7 +3933,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3672,7 +3964,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3703,7 +3995,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3734,7 +4026,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3765,7 +4057,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3796,7 +4088,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3827,7 +4119,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3858,7 +4150,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3889,7 +4181,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3920,7 +4212,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3951,7 +4243,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3982,7 +4274,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4013,7 +4305,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4044,7 +4336,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4075,7 +4367,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4106,7 +4398,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4137,7 +4429,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4168,7 +4460,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4199,7 +4491,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4230,7 +4522,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4261,7 +4553,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4292,7 +4584,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4323,7 +4615,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4354,7 +4646,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4385,7 +4677,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4416,7 +4708,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4447,7 +4739,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4478,7 +4770,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4509,7 +4801,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4540,7 +4832,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="8">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -4571,7 +4863,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4602,7 +4894,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4633,7 +4925,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4664,7 +4956,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4695,7 +4987,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4726,7 +5018,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4757,7 +5049,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4788,7 +5080,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4819,7 +5111,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4850,7 +5142,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4881,7 +5173,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4912,7 +5204,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4943,7 +5235,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4974,7 +5266,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5005,7 +5297,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5036,7 +5328,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5067,7 +5359,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5098,7 +5390,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5129,7 +5421,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5160,7 +5452,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5191,7 +5483,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5222,7 +5514,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5253,7 +5545,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5284,7 +5576,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
+    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5379,7 +5671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5387,7 +5679,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.25" style="31" customWidth="1"/>
     <col min="2" max="2" width="11" style="31"/>
@@ -5398,38 +5690,38 @@
     <col min="12" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="40"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="40"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="41"/>
       <c r="H3" s="31" t="s">
         <v>18</v>
@@ -5444,7 +5736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
@@ -5472,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>45</v>
       </c>
@@ -5480,11 +5772,11 @@
       <c r="C5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="100" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="41"/>
       <c r="H5" s="31" t="s">
         <v>22</v>
@@ -5499,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -5521,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
@@ -5529,12 +5821,12 @@
       <c r="C7" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="86" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="31" t="s">
         <v>24</v>
       </c>
@@ -5548,7 +5840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>53</v>
       </c>
@@ -5567,7 +5859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>12</v>
       </c>
@@ -5586,7 +5878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>36</v>
       </c>
@@ -5605,7 +5897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
@@ -5616,7 +5908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="31" t="s">
         <v>37</v>
       </c>
@@ -5627,15 +5919,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="31" t="s">
         <v>33</v>
       </c>
@@ -5646,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -5663,17 +5955,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="31">
         <v>12</v>
       </c>
@@ -5681,7 +5973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -5705,7 +5997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>44</v>
       </c>
@@ -5713,12 +6005,12 @@
       <c r="C17" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="94" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="31">
         <v>14</v>
       </c>
@@ -5726,7 +6018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>48</v>
       </c>
@@ -5734,12 +6026,12 @@
       <c r="C18" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="86" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="31">
         <v>15</v>
       </c>
@@ -5747,7 +6039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>10</v>
       </c>
@@ -5766,7 +6058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
@@ -5788,7 +6080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="31" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5805,122 +6097,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="31">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="31">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="31">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="31">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="31">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="31">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="31">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="31">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="31">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="31">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="31">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="31">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="31">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="31">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="31">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="31">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="31" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5940,12 +6232,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2028825</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2019300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1657350</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2066925</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2085975</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5953,7 +6406,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="31" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="31" customWidth="1"/>
@@ -5969,42 +6422,42 @@
     <col min="12" max="16384" width="10.875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="50" t="s">
         <v>65</v>
       </c>
@@ -6015,7 +6468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="52" customFormat="1">
+    <row r="3" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>69</v>
       </c>
@@ -6039,7 +6492,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
     </row>
-    <row r="4" spans="1:11" s="52" customFormat="1">
+    <row r="4" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>57</v>
       </c>
@@ -6067,7 +6520,7 @@
       </c>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:11" s="52" customFormat="1">
+    <row r="5" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>77</v>
       </c>
@@ -6095,7 +6548,7 @@
       </c>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:11" s="52" customFormat="1">
+    <row r="6" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>58</v>
       </c>
@@ -6127,7 +6580,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>80</v>
       </c>
@@ -6155,7 +6608,7 @@
       </c>
       <c r="J7" s="53"/>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>82</v>
       </c>
@@ -6183,7 +6636,7 @@
       </c>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1">
+    <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>84</v>
       </c>
@@ -6211,7 +6664,7 @@
       </c>
       <c r="J9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="52" customFormat="1">
+    <row r="10" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>86</v>
       </c>
@@ -6237,7 +6690,7 @@
       </c>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>89</v>
       </c>
@@ -6265,7 +6718,7 @@
       </c>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:11" s="52" customFormat="1">
+    <row r="12" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>91</v>
       </c>
@@ -6293,7 +6746,7 @@
       </c>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>93</v>
       </c>
@@ -6320,7 +6773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>97</v>
       </c>
@@ -6344,7 +6797,7 @@
       </c>
       <c r="J14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>99</v>
       </c>
@@ -6371,7 +6824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>103</v>
       </c>
@@ -6400,7 +6853,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>106</v>
       </c>
@@ -6429,12 +6882,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>113</v>
       </c>
@@ -6447,7 +6900,7 @@
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>114</v>
       </c>
@@ -6460,7 +6913,7 @@
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
         <v>115</v>
       </c>
@@ -6473,7 +6926,7 @@
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
         <v>116</v>
       </c>
@@ -6486,7 +6939,7 @@
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
         <v>117</v>
       </c>
@@ -6499,7 +6952,7 @@
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
         <v>118</v>
       </c>

--- a/fuentes/contenidos/grado06/guion03/SolicitudGrafica_CN_06_03_CO_REC60.xlsx
+++ b/fuentes/contenidos/grado06/guion03/SolicitudGrafica_CN_06_03_CO_REC60.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
   <si>
     <t>Fecha:</t>
   </si>
@@ -529,31 +529,25 @@
     <t>IMG02</t>
   </si>
   <si>
-    <t>http://mexico.cnn.com/tecnologia/2012/03/12/la-arquea-el-microorganismo-mas-rapido-del-mundo</t>
-  </si>
-  <si>
     <t>Formas de las arqueas</t>
   </si>
   <si>
     <t>IMG03</t>
   </si>
   <si>
-    <t>http://image.slidesharecdn.com/tiposderepro-asexual-100826183009-phpapp01/95/tipos-de-reproasexual-4-728.jpg?cb=1282865510</t>
-  </si>
-  <si>
     <t>Reproducción de las arqueas</t>
   </si>
   <si>
     <t>IMG04</t>
   </si>
   <si>
-    <t>http://3.bp.blogspot.com/-kop9dHkTn8k/TtEiqWBS1jI/AAAAAAAAAAg/BFKtesJTR3Q/s1600/BACT.png</t>
-  </si>
-  <si>
     <t>Utilidad de las arqueas</t>
   </si>
   <si>
     <t>CN_06_03_REC60</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
   </si>
 </sst>
 </file>
@@ -2312,9 +2306,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2443,7 +2437,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>39</v>
@@ -2552,8 +2546,8 @@
       <c r="A11" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>153</v>
+      <c r="B11" s="76">
+        <v>154992563</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2582,23 +2576,21 @@
         <v/>
       </c>
       <c r="J11" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>156</v>
-      </c>
+      <c r="B12" s="76"/>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>150</v>
@@ -2620,23 +2612,21 @@
         <v/>
       </c>
       <c r="J12" s="77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>159</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B13" s="78"/>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>150</v>
@@ -2658,7 +2648,7 @@
         <v/>
       </c>
       <c r="J13" s="77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -5656,12 +5646,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B12" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
